--- a/resources/problem01/Statistics.xlsx
+++ b/resources/problem01/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deb/github/WrittenQualifier/resources/problem01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C4F2B6-3E21-1F48-8F53-4B7FE56E286E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C62A0-3F2D-5D4F-A32C-D0E10BA8C12C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="17540" xr2:uid="{977C3F12-CA30-2940-B949-BECFEB14FFE5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Facebook</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Youtube</t>
   </si>
   <si>
-    <t>Tiktok</t>
-  </si>
-  <si>
     <t>Reddit</t>
   </si>
   <si>
@@ -129,13 +126,52 @@
   </si>
   <si>
     <t>Million Rides per day</t>
+  </si>
+  <si>
+    <t>Million Photos per day</t>
+  </si>
+  <si>
+    <t>hours of videos per day</t>
+  </si>
+  <si>
+    <t>https://tubularinsights.com/hours-minute-uploaded-youtube/</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>Million posts per minute</t>
+  </si>
+  <si>
+    <t>https://blog.microfocus.com/how-much-data-is-created-on-the-internet-each-day/</t>
+  </si>
+  <si>
+    <t>https://www.omnicoreagency.com/facebook-statistics/</t>
+  </si>
+  <si>
+    <t>Average 155 friends</t>
+  </si>
+  <si>
+    <t>Million photos per day</t>
+  </si>
+  <si>
+    <t>Million Pins per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 billion </t>
+  </si>
+  <si>
+    <t>80 old 20 new</t>
+  </si>
+  <si>
+    <t>http://socialmarketingwriting.com/19-pinterest-statistics-you-probably-dont-know-but-should-infographic/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +183,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,13 +223,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,40 +549,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C57B4E5-0F7E-034B-88AC-01A388E6ED9A}">
-  <dimension ref="A5:S37"/>
+  <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2013</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>2014</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>2015</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>2016</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>2017</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>2018</v>
       </c>
     </row>
@@ -534,7 +606,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7">
@@ -558,7 +630,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8">
@@ -582,7 +654,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H9">
@@ -593,7 +665,7 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10">
@@ -615,12 +687,12 @@
         <v>332</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11">
@@ -632,7 +704,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12">
@@ -650,25 +722,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H13">
         <v>330</v>
       </c>
       <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
         <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C14">
         <v>150</v>
@@ -689,44 +761,72 @@
         <v>1000</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>100</v>
+      </c>
+      <c r="E15" s="6">
+        <v>180</v>
+      </c>
+      <c r="F15" s="6">
+        <v>301</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>75</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>700</v>
       </c>
-      <c r="H16">
+      <c r="D17">
+        <v>1100</v>
+      </c>
+      <c r="E17">
+        <v>1431</v>
+      </c>
+      <c r="F17">
+        <v>1618</v>
+      </c>
+      <c r="G17">
+        <v>1767</v>
+      </c>
+      <c r="H17">
         <v>1900</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -739,8 +839,8 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C19">
         <v>96</v>
@@ -761,12 +861,12 @@
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>31</v>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E20">
         <v>208</v>
@@ -780,16 +880,13 @@
       <c r="H20">
         <v>400</v>
       </c>
-      <c r="I20" t="s">
-        <v>30</v>
+      <c r="K20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -811,30 +908,42 @@
       <c r="H23">
         <v>2018</v>
       </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>27</v>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N26">
@@ -860,46 +969,47 @@
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>144</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>398.88</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>499.99968000000001</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
         <v>656.64</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <v>681.69600000000003</v>
       </c>
       <c r="N27">
-        <v>100000</v>
+        <v>27778</v>
       </c>
       <c r="O27">
-        <v>277000</v>
+        <v>3472</v>
       </c>
       <c r="P27">
-        <v>347222</v>
+        <v>9722</v>
+      </c>
+      <c r="Q27">
+        <v>400</v>
       </c>
       <c r="R27">
-        <v>456000</v>
-      </c>
-      <c r="S27">
-        <v>473400</v>
+        <v>527760</v>
+      </c>
+      <c r="S27" s="4">
+        <v>2083333</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28">
@@ -921,7 +1031,7 @@
         <v>448</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <f t="shared" ref="N28:R28" si="0">24*60</f>
@@ -950,38 +1060,56 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" ref="N29:R29" si="1">N27*N28/1000000</f>
-        <v>144</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="4">
+        <f t="shared" ref="N29:P29" si="1">N27*N28</f>
+        <v>40000320</v>
+      </c>
+      <c r="O29" s="4">
         <f t="shared" si="1"/>
-        <v>398.88</v>
-      </c>
-      <c r="P29" s="3">
+        <v>4999680</v>
+      </c>
+      <c r="P29" s="4">
         <f t="shared" si="1"/>
-        <v>499.99968000000001</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="1"/>
-        <v>656.64</v>
-      </c>
-      <c r="S29" s="3">
-        <f>S27*S28/1000000</f>
-        <v>681.69600000000003</v>
+        <v>13999680</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>Q27*Q28</f>
+        <v>576000</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" ref="R29:S29" si="2">R27*R28</f>
+        <v>759974400</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="2"/>
+        <v>2999999520</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C30">
         <v>360</v>
@@ -1002,94 +1130,137 @@
         <v>1400</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="D31" s="4">
+        <v>31.103999999999999</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>67.305599999999998</v>
+      </c>
+      <c r="H31" s="4">
+        <v>71.107200000000006</v>
+      </c>
+      <c r="I31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>760</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4">
+        <v>69120</v>
+      </c>
+      <c r="D33" s="4">
+        <v>103680</v>
+      </c>
+      <c r="E33" s="4">
+        <v>432000</v>
+      </c>
+      <c r="F33" s="4">
+        <v>576000</v>
+      </c>
+      <c r="G33" s="4">
+        <v>720000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>55</v>
+      </c>
+      <c r="E35">
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <v>95</v>
+      </c>
+      <c r="G35">
+        <v>135</v>
+      </c>
+      <c r="H35">
+        <v>171</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>55</v>
-      </c>
-      <c r="E36">
-        <v>75</v>
-      </c>
-      <c r="F36">
-        <v>95</v>
-      </c>
-      <c r="G36">
-        <v>135</v>
-      </c>
-      <c r="H36">
-        <v>171</v>
-      </c>
       <c r="I36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/problem01/Statistics.xlsx
+++ b/resources/problem01/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deb/github/WrittenQualifier/resources/problem01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C62A0-3F2D-5D4F-A32C-D0E10BA8C12C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A693183-972D-8E4D-BF1D-4E693BC2F924}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="17540" xr2:uid="{977C3F12-CA30-2940-B949-BECFEB14FFE5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="17540" xr2:uid="{977C3F12-CA30-2940-B949-BECFEB14FFE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,6 +250,872 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>467.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1295.16336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1623.49896096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1877.8045204800001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2132.1100799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2213.4669119999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-247F-C346-90C9-485CDF7F10B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2070164752"/>
+        <c:axId val="2064444976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2070164752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2064444976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2064444976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2070164752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>339182</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>760451</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>148063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4859CBBB-178F-0C4C-B348-27420CEFF7A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,17 +1415,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C57B4E5-0F7E-034B-88AC-01A388E6ED9A}">
-  <dimension ref="A2:S36"/>
+  <dimension ref="A2:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1252,6 +2122,209 @@
       </c>
       <c r="I36" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="4">
+        <v>144</v>
+      </c>
+      <c r="D52" s="4">
+        <v>398.88</v>
+      </c>
+      <c r="E52" s="4">
+        <v>499.99968000000001</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4">
+        <v>656.64</v>
+      </c>
+      <c r="H52" s="4">
+        <v>681.69600000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f t="shared" ref="C53:G53" si="3">C52*10^6*$I$51</f>
+        <v>467568000000</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>1295163360000</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>1623498960960</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>2132110080000</v>
+      </c>
+      <c r="H53">
+        <f>H52*10^6*$I$51</f>
+        <v>2213466912000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f t="shared" ref="C54:G54" si="4">C53/(1000*1000*1000)</f>
+        <v>467.56799999999998</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>1295.16336</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>1623.49896096</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>2132.1100799999999</v>
+      </c>
+      <c r="H54">
+        <f>H53/(1000*1000*1000)</f>
+        <v>2213.4669119999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>2009</v>
+      </c>
+      <c r="C60">
+        <v>2013</v>
+      </c>
+      <c r="D60">
+        <v>2014</v>
+      </c>
+      <c r="E60">
+        <v>2015</v>
+      </c>
+      <c r="F60">
+        <v>2016</v>
+      </c>
+      <c r="G60">
+        <v>2017</v>
+      </c>
+      <c r="H60">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61">
+        <v>467.56799999999998</v>
+      </c>
+      <c r="D61">
+        <v>1295.16336</v>
+      </c>
+      <c r="E61">
+        <v>1623.49896096</v>
+      </c>
+      <c r="F61">
+        <f>(E61+G61)/2</f>
+        <v>1877.8045204800001</v>
+      </c>
+      <c r="G61">
+        <v>2132.1100799999999</v>
+      </c>
+      <c r="H61">
+        <v>2213.4669119999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <f>(C61+B61)/2</f>
+        <v>283.78399999999999</v>
+      </c>
+      <c r="C63">
+        <f>(D61+C61)/2</f>
+        <v>881.36568</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:G63" si="5">(E61+D61)/2</f>
+        <v>1459.3311604800001</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="5"/>
+        <v>1750.6517407199999</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>2004.95730024</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>2172.7884960000001</v>
+      </c>
+      <c r="H63">
+        <f>SUM(B63:G63)</f>
+        <v>8552.8783774399999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f>H63*365</f>
+        <v>3121800.6077656001</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="4">
+        <v>69120</v>
+      </c>
+      <c r="D76" s="4">
+        <v>103680</v>
+      </c>
+      <c r="E76" s="4">
+        <v>432000</v>
+      </c>
+      <c r="F76" s="4">
+        <v>576000</v>
+      </c>
+      <c r="G76" s="4">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f>(D76+C76)/2</f>
+        <v>86400</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ref="D78:G78" si="6">(E76+D76)/2</f>
+        <v>267840</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="6"/>
+        <v>504000</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="6"/>
+        <v>648000</v>
+      </c>
+      <c r="H78">
+        <f>SUM(C78:F78)</f>
+        <v>1506240</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <f>60 * 93.8614355 * 365 *H78</f>
+        <v>3096174884504.688</v>
       </c>
     </row>
   </sheetData>
@@ -1264,5 +2337,6 @@
     <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>